--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="1360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6780" yWindow="1840" windowWidth="43180" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -168,76 +168,22 @@
     <t>intro_note</t>
   </si>
   <si>
-    <t>select_one</t>
-  </si>
-  <si>
     <t>acknowledge_auth</t>
   </si>
   <si>
-    <t>Is this the correct authorization information?</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>selected(data('acknowledge_auth'), 'yes')</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>scanned_item_pack_barcode</t>
-  </si>
-  <si>
-    <t>Scan an item pack barcode within the range of {{data.minRange}} to {{data.maxRange}}</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>parseInt(data('scanned_item_pack_barcode'))</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
-    <t>item_scan</t>
-  </si>
-  <si>
-    <t>Unauthorized Item Pack! Do not distribute this  item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t>try_again</t>
-  </si>
-  <si>
-    <t>selected(data('try_again'),'yes')</t>
-  </si>
-  <si>
-    <t>goto item_scan</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>This item pack is authorized. Please distribute this item pack.</t>
-  </si>
-  <si>
-    <t>Has the item pack been successfully distributed?</t>
-  </si>
-  <si>
     <t>is_distributed</t>
   </si>
   <si>
-    <t>(data('scanned_item_pack_barcode') &gt; data('maxRange')) || (data('scanned_item_pack_barcode') &lt; data('minRange'))</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
   </si>
 </sst>
 </file>
@@ -400,8 +346,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -604,7 +560,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +647,11 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -777,6 +738,11 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1123,7 +1089,7 @@
     <col min="8" max="8" width="42.1640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1">
+    <row r="1" spans="1:9" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -1146,10 +1112,13 @@
         <v>21</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1158,130 +1127,6 @@
       </c>
       <c r="F2" s="12" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1145,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1387,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1395,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1336,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1840" windowWidth="43180" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>

--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>is_override</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1241,6 +1244,14 @@
       </c>
       <c r="B11" s="5" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -111,15 +111,6 @@
     <t>authorization_id</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>min_range</t>
-  </si>
-  <si>
-    <t>max_range</t>
-  </si>
-  <si>
     <t>Distribution Authorization</t>
   </si>
   <si>
@@ -187,6 +178,12 @@
   </si>
   <si>
     <t>is_override</t>
+  </si>
+  <si>
+    <t>ranges</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -1115,21 +1112,21 @@
         <v>21</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1145,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1171,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1192,18 +1189,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1211,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1219,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1227,31 +1224,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1313,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1321,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1329,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1383,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1562,25 +1551,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17780" yWindow="2760" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="initial" sheetId="5" r:id="rId5"/>
     <sheet name="calculates" sheetId="7" r:id="rId6"/>
     <sheet name="queries" sheetId="8" r:id="rId7"/>
+    <sheet name="properties" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -183,7 +184,58 @@
     <t>ranges</t>
   </si>
   <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>filterTypeOnCreation</t>
+  </si>
+  <si>
+    <t>READ_ONLY</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>FormType</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>FormType.formType</t>
+  </si>
+  <si>
+    <t>SURVEY</t>
+  </si>
+  <si>
+    <t>SurveyUtil</t>
+  </si>
+  <si>
+    <t>SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t>wrong_form</t>
   </si>
 </sst>
 </file>
@@ -346,7 +398,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,8 +582,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -559,8 +615,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -652,6 +715,8 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -743,6 +808,8 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1224,22 +1291,30 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1580,4 +1655,127 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/distribution/forms/distribution/distribution.xlsx
+++ b/app/config/tables/distribution/forms/distribution/distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="2760" windowWidth="25120" windowHeight="15580" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="queries" sheetId="8" r:id="rId7"/>
     <sheet name="properties" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="252" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>type</t>
   </si>
@@ -121,9 +121,6 @@
     <t>item_pack_name</t>
   </si>
   <si>
-    <t>distribution_id</t>
-  </si>
-  <si>
     <t>distribution</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t>intro_note</t>
-  </si>
-  <si>
-    <t>acknowledge_auth</t>
   </si>
   <si>
     <t>branch_label</t>
@@ -1141,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1179,21 +1173,21 @@
         <v>21</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1209,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1235,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1243,15 +1237,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1259,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1267,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1275,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1283,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1291,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1299,23 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1377,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1393,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1447,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1626,25 +1604,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
@@ -1669,13 +1647,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>0</v>
@@ -1686,87 +1664,87 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
